--- a/resources/student_number.xlsx
+++ b/resources/student_number.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Elementary School" sheetId="1" r:id="rId1"/>
-    <sheet name="Middle School Enrollment" sheetId="2" r:id="rId2"/>
-    <sheet name="High School Enrollment" sheetId="3" r:id="rId3"/>
+    <sheet name="jpg" sheetId="4" r:id="rId1"/>
+    <sheet name="Elementary School" sheetId="1" r:id="rId2"/>
+    <sheet name="Middle School Enrollment" sheetId="2" r:id="rId3"/>
+    <sheet name="High School Enrollment" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
-  <si>
-    <t>Elementary school</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>K</t>
   </si>
@@ -112,30 +110,15 @@
     <t>Greenway</t>
   </si>
   <si>
-    <t xml:space="preserve">stroller: </t>
-  </si>
-  <si>
-    <t>timberline:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar park: </t>
-  </si>
-  <si>
     <t>Whitford</t>
   </si>
   <si>
-    <t>Medow Park</t>
-  </si>
-  <si>
     <t>Five Oak</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>expected MS</t>
-  </si>
-  <si>
     <t>Middle School</t>
   </si>
   <si>
@@ -199,17 +182,29 @@
     <t>Mountainside</t>
   </si>
   <si>
-    <t>1/2=&gt;stroller</t>
-  </si>
-  <si>
-    <t>1/2-&gt;Medow Park</t>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Timberland</t>
+  </si>
+  <si>
+    <t>MedowPark</t>
+  </si>
+  <si>
+    <t>half -&gt; Medow</t>
+  </si>
+  <si>
+    <t>ES total</t>
+  </si>
+  <si>
+    <t>MS approx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,6 +260,72 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="26"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="26"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,17 +421,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -654,824 +718,1210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="C2" s="4">
+        <v>516</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2210</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="C3" s="4">
+        <v>724</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>68</v>
-      </c>
-      <c r="C2">
-        <v>71</v>
-      </c>
-      <c r="D2">
-        <v>95</v>
-      </c>
-      <c r="E2">
-        <v>92</v>
-      </c>
-      <c r="F2">
-        <v>93</v>
-      </c>
-      <c r="G2">
-        <v>97</v>
-      </c>
-      <c r="H2">
-        <v>448</v>
-      </c>
-      <c r="I2">
-        <v>516</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="C4" s="4">
+        <v>649</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>727</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2082</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>636</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>655</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>428</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>349</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1914</v>
+      </c>
+      <c r="E9" s="4">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>336</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>410</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>487</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <v>332</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>359</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1958</v>
+      </c>
+      <c r="E14" s="4">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4">
+        <v>319</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4">
+        <v>693</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>269</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
+        <v>318</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L2">
-        <v>2210</v>
-      </c>
-      <c r="M2">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3">
-        <v>110</v>
-      </c>
-      <c r="D3">
-        <v>132</v>
-      </c>
-      <c r="E3">
-        <v>122</v>
-      </c>
-      <c r="F3">
-        <v>116</v>
-      </c>
-      <c r="G3">
-        <v>121</v>
-      </c>
-      <c r="H3">
-        <v>601</v>
-      </c>
-      <c r="I3">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>121</v>
-      </c>
-      <c r="D4">
-        <v>108</v>
-      </c>
-      <c r="E4">
-        <v>115</v>
-      </c>
-      <c r="F4">
-        <v>107</v>
-      </c>
-      <c r="G4">
-        <v>98</v>
-      </c>
-      <c r="H4">
-        <v>549</v>
-      </c>
-      <c r="I4">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>115</v>
-      </c>
-      <c r="C5">
-        <v>94</v>
-      </c>
-      <c r="D5">
-        <v>129</v>
-      </c>
-      <c r="E5">
-        <v>131</v>
-      </c>
-      <c r="F5">
-        <v>125</v>
-      </c>
-      <c r="G5">
-        <v>133</v>
-      </c>
-      <c r="H5">
-        <v>612</v>
-      </c>
-      <c r="I5">
-        <v>727</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5">
-        <v>2082</v>
-      </c>
-      <c r="M5">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>74</v>
-      </c>
-      <c r="C6">
-        <v>91</v>
-      </c>
-      <c r="D6">
-        <v>97</v>
-      </c>
-      <c r="E6">
-        <v>117</v>
-      </c>
-      <c r="F6">
-        <v>115</v>
-      </c>
-      <c r="G6">
-        <v>142</v>
-      </c>
-      <c r="H6">
-        <v>562</v>
-      </c>
-      <c r="I6">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>94</v>
-      </c>
-      <c r="C7">
-        <v>126</v>
-      </c>
-      <c r="D7">
-        <v>109</v>
-      </c>
-      <c r="E7">
-        <v>101</v>
-      </c>
-      <c r="F7">
-        <v>116</v>
-      </c>
-      <c r="G7">
-        <v>109</v>
-      </c>
-      <c r="H7">
-        <v>561</v>
-      </c>
-      <c r="I7">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>63</v>
-      </c>
-      <c r="C8">
-        <v>67</v>
-      </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>69</v>
-      </c>
-      <c r="F8">
-        <v>81</v>
-      </c>
-      <c r="G8">
-        <v>75</v>
-      </c>
-      <c r="H8">
-        <v>365</v>
-      </c>
-      <c r="I8">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>68</v>
-      </c>
-      <c r="D9">
-        <v>55</v>
-      </c>
-      <c r="E9">
-        <v>47</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>56</v>
-      </c>
-      <c r="H9">
-        <v>286</v>
-      </c>
-      <c r="I9">
-        <v>349</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>1914</v>
-      </c>
-      <c r="M9">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>59</v>
-      </c>
-      <c r="C10">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>55</v>
-      </c>
-      <c r="E10">
-        <v>49</v>
-      </c>
-      <c r="F10">
+      <c r="B19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>634</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2249</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>550</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>708</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>714</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G10">
-        <v>67</v>
-      </c>
-      <c r="H10">
-        <v>277</v>
-      </c>
-      <c r="I10">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>76</v>
-      </c>
-      <c r="C11">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>77</v>
-      </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-      <c r="F11">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>71</v>
-      </c>
-      <c r="H11">
-        <v>334</v>
-      </c>
-      <c r="I11">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>101</v>
-      </c>
-      <c r="C12">
-        <v>82</v>
-      </c>
-      <c r="D12">
-        <v>76</v>
-      </c>
-      <c r="E12">
-        <v>73</v>
-      </c>
-      <c r="F12">
-        <v>83</v>
-      </c>
-      <c r="G12">
-        <v>72</v>
-      </c>
-      <c r="H12">
-        <v>386</v>
-      </c>
-      <c r="I12">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>46</v>
-      </c>
-      <c r="C13">
-        <v>58</v>
-      </c>
-      <c r="D13">
-        <v>57</v>
-      </c>
-      <c r="E13">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <v>63</v>
-      </c>
-      <c r="H13">
-        <v>286</v>
-      </c>
-      <c r="I13">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>55</v>
-      </c>
-      <c r="D14">
-        <v>61</v>
-      </c>
-      <c r="E14">
-        <v>59</v>
-      </c>
-      <c r="F14">
-        <v>57</v>
-      </c>
-      <c r="G14">
-        <v>67</v>
-      </c>
-      <c r="H14">
-        <v>299</v>
-      </c>
-      <c r="I14">
-        <v>359</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14">
-        <v>1958</v>
-      </c>
-      <c r="M14">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>66</v>
-      </c>
-      <c r="C15">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>49</v>
-      </c>
-      <c r="E15">
-        <v>49</v>
-      </c>
-      <c r="F15">
-        <v>57</v>
-      </c>
-      <c r="G15">
-        <v>49</v>
-      </c>
-      <c r="H15">
-        <v>253</v>
-      </c>
-      <c r="I15">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>129</v>
-      </c>
-      <c r="C16">
-        <v>116</v>
-      </c>
-      <c r="D16">
-        <v>128</v>
-      </c>
-      <c r="E16">
-        <v>99</v>
-      </c>
-      <c r="F16">
-        <v>109</v>
-      </c>
-      <c r="G16">
-        <v>112</v>
-      </c>
-      <c r="H16">
-        <v>564</v>
-      </c>
-      <c r="I16">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>55</v>
-      </c>
-      <c r="C17">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>40</v>
-      </c>
-      <c r="H17">
-        <v>214</v>
-      </c>
-      <c r="I17">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>41</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>56</v>
-      </c>
-      <c r="F18">
-        <v>57</v>
-      </c>
-      <c r="G18">
-        <v>54</v>
-      </c>
-      <c r="H18">
-        <v>258</v>
-      </c>
-      <c r="I18">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>107</v>
-      </c>
-      <c r="C19">
-        <v>110</v>
-      </c>
-      <c r="D19">
-        <v>122</v>
-      </c>
-      <c r="E19">
-        <v>88</v>
-      </c>
-      <c r="F19">
-        <v>97</v>
-      </c>
-      <c r="G19">
-        <v>110</v>
-      </c>
-      <c r="H19">
-        <v>527</v>
-      </c>
-      <c r="I19">
-        <v>634</v>
-      </c>
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19">
-        <v>2249</v>
-      </c>
-      <c r="M19">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>107</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
-      <c r="E20">
-        <v>86</v>
-      </c>
-      <c r="F20">
-        <v>90</v>
-      </c>
-      <c r="G20">
-        <v>87</v>
-      </c>
-      <c r="H20">
-        <v>443</v>
-      </c>
-      <c r="I20">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>102</v>
-      </c>
-      <c r="C21">
-        <v>115</v>
-      </c>
-      <c r="D21">
-        <v>122</v>
-      </c>
-      <c r="E21">
-        <v>124</v>
-      </c>
-      <c r="F21">
-        <v>131</v>
-      </c>
-      <c r="G21">
-        <v>114</v>
-      </c>
-      <c r="H21">
-        <v>606</v>
-      </c>
-      <c r="I21">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>108</v>
-      </c>
-      <c r="C22">
-        <v>126</v>
-      </c>
-      <c r="D22">
-        <v>114</v>
-      </c>
-      <c r="E22">
-        <v>107</v>
-      </c>
-      <c r="F22">
-        <v>129</v>
-      </c>
-      <c r="G22">
-        <v>130</v>
-      </c>
-      <c r="H22">
-        <v>606</v>
-      </c>
-      <c r="I22">
-        <v>714</v>
-      </c>
-      <c r="J22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="4">
+        <v>528</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2026</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B23">
-        <v>82</v>
-      </c>
-      <c r="C23">
-        <v>84</v>
-      </c>
-      <c r="D23">
-        <v>90</v>
-      </c>
-      <c r="E23">
-        <v>90</v>
-      </c>
-      <c r="F23">
-        <v>92</v>
-      </c>
-      <c r="G23">
-        <v>90</v>
-      </c>
-      <c r="H23">
-        <v>446</v>
-      </c>
-      <c r="I23">
-        <v>528</v>
-      </c>
-      <c r="K23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23">
-        <v>2026</v>
-      </c>
-      <c r="M23">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="C24" s="4">
+        <v>551</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24">
-        <v>89</v>
-      </c>
-      <c r="C24">
-        <v>101</v>
-      </c>
-      <c r="D24">
-        <v>85</v>
-      </c>
-      <c r="E24">
-        <v>97</v>
-      </c>
-      <c r="F24">
-        <v>89</v>
-      </c>
-      <c r="G24">
-        <v>90</v>
-      </c>
-      <c r="H24">
-        <v>462</v>
-      </c>
-      <c r="I24">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <v>107</v>
-      </c>
-      <c r="C25">
-        <v>90</v>
-      </c>
-      <c r="D25">
-        <v>106</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>85</v>
-      </c>
-      <c r="G25">
-        <v>102</v>
-      </c>
-      <c r="H25">
-        <v>483</v>
-      </c>
-      <c r="I25">
+      <c r="C25" s="4">
         <v>590</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I26">
-        <f>SUM(I6:I8)</f>
-        <v>1719</v>
-      </c>
-    </row>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4">
+        <v>95</v>
+      </c>
+      <c r="F2" s="4">
+        <v>92</v>
+      </c>
+      <c r="G2" s="4">
+        <v>93</v>
+      </c>
+      <c r="H2" s="4">
+        <v>97</v>
+      </c>
+      <c r="I2" s="4">
+        <v>448</v>
+      </c>
+      <c r="J2" s="4">
+        <v>516</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2210</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4">
+        <v>110</v>
+      </c>
+      <c r="E3" s="4">
+        <v>132</v>
+      </c>
+      <c r="F3" s="4">
+        <v>122</v>
+      </c>
+      <c r="G3" s="4">
+        <v>116</v>
+      </c>
+      <c r="H3" s="4">
+        <v>121</v>
+      </c>
+      <c r="I3" s="4">
+        <v>601</v>
+      </c>
+      <c r="J3" s="4">
+        <v>724</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4">
+        <v>108</v>
+      </c>
+      <c r="F4" s="4">
+        <v>115</v>
+      </c>
+      <c r="G4" s="4">
+        <v>107</v>
+      </c>
+      <c r="H4" s="4">
+        <v>98</v>
+      </c>
+      <c r="I4" s="4">
+        <v>549</v>
+      </c>
+      <c r="J4" s="4">
+        <v>649</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>115</v>
+      </c>
+      <c r="D5" s="4">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4">
+        <v>129</v>
+      </c>
+      <c r="F5" s="4">
+        <v>131</v>
+      </c>
+      <c r="G5" s="4">
+        <v>125</v>
+      </c>
+      <c r="H5" s="4">
+        <v>133</v>
+      </c>
+      <c r="I5" s="4">
+        <v>612</v>
+      </c>
+      <c r="J5" s="4">
+        <v>727</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2082</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4">
+        <v>91</v>
+      </c>
+      <c r="E6" s="4">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4">
+        <v>117</v>
+      </c>
+      <c r="G6" s="4">
+        <v>115</v>
+      </c>
+      <c r="H6" s="4">
+        <v>142</v>
+      </c>
+      <c r="I6" s="4">
+        <v>562</v>
+      </c>
+      <c r="J6" s="4">
+        <v>636</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>94</v>
+      </c>
+      <c r="D7" s="4">
+        <v>126</v>
+      </c>
+      <c r="E7" s="4">
+        <v>109</v>
+      </c>
+      <c r="F7" s="4">
+        <v>101</v>
+      </c>
+      <c r="G7" s="4">
+        <v>116</v>
+      </c>
+      <c r="H7" s="4">
+        <v>109</v>
+      </c>
+      <c r="I7" s="4">
+        <v>561</v>
+      </c>
+      <c r="J7" s="4">
+        <v>655</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4">
+        <v>81</v>
+      </c>
+      <c r="H8" s="4">
+        <v>75</v>
+      </c>
+      <c r="I8" s="4">
+        <v>365</v>
+      </c>
+      <c r="J8" s="4">
+        <v>428</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4">
+        <v>68</v>
+      </c>
+      <c r="E9" s="4">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4">
+        <v>56</v>
+      </c>
+      <c r="I9" s="4">
+        <v>286</v>
+      </c>
+      <c r="J9" s="4">
+        <v>349</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1914</v>
+      </c>
+      <c r="L9" s="4">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4">
+        <v>54</v>
+      </c>
+      <c r="H10" s="4">
+        <v>67</v>
+      </c>
+      <c r="I10" s="4">
+        <v>277</v>
+      </c>
+      <c r="J10" s="4">
+        <v>336</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4">
+        <v>65</v>
+      </c>
+      <c r="G11" s="4">
+        <v>54</v>
+      </c>
+      <c r="H11" s="4">
+        <v>71</v>
+      </c>
+      <c r="I11" s="4">
+        <v>334</v>
+      </c>
+      <c r="J11" s="4">
+        <v>410</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>101</v>
+      </c>
+      <c r="D12" s="4">
+        <v>82</v>
+      </c>
+      <c r="E12" s="4">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4">
+        <v>73</v>
+      </c>
+      <c r="G12" s="4">
+        <v>83</v>
+      </c>
+      <c r="H12" s="4">
+        <v>72</v>
+      </c>
+      <c r="I12" s="4">
+        <v>386</v>
+      </c>
+      <c r="J12" s="4">
+        <v>487</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4">
+        <v>61</v>
+      </c>
+      <c r="H13" s="4">
+        <v>63</v>
+      </c>
+      <c r="I13" s="4">
+        <v>286</v>
+      </c>
+      <c r="J13" s="4">
+        <v>332</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4">
+        <v>59</v>
+      </c>
+      <c r="G14" s="4">
+        <v>57</v>
+      </c>
+      <c r="H14" s="4">
+        <v>67</v>
+      </c>
+      <c r="I14" s="4">
+        <v>299</v>
+      </c>
+      <c r="J14" s="4">
+        <v>359</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1958</v>
+      </c>
+      <c r="L14" s="4">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4">
+        <v>57</v>
+      </c>
+      <c r="H15" s="4">
+        <v>49</v>
+      </c>
+      <c r="I15" s="4">
+        <v>253</v>
+      </c>
+      <c r="J15" s="4">
+        <v>319</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4">
+        <v>129</v>
+      </c>
+      <c r="D16" s="4">
+        <v>116</v>
+      </c>
+      <c r="E16" s="4">
+        <v>128</v>
+      </c>
+      <c r="F16" s="4">
+        <v>99</v>
+      </c>
+      <c r="G16" s="4">
+        <v>109</v>
+      </c>
+      <c r="H16" s="4">
+        <v>112</v>
+      </c>
+      <c r="I16" s="4">
+        <v>564</v>
+      </c>
+      <c r="J16" s="4">
+        <v>693</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4">
+        <v>54</v>
+      </c>
+      <c r="H17" s="4">
+        <v>40</v>
+      </c>
+      <c r="I17" s="4">
+        <v>214</v>
+      </c>
+      <c r="J17" s="4">
+        <v>269</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4">
+        <v>56</v>
+      </c>
+      <c r="G18" s="4">
+        <v>57</v>
+      </c>
+      <c r="H18" s="4">
+        <v>54</v>
+      </c>
+      <c r="I18" s="4">
+        <v>258</v>
+      </c>
+      <c r="J18" s="4">
+        <v>318</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>107</v>
+      </c>
+      <c r="D19" s="4">
+        <v>110</v>
+      </c>
+      <c r="E19" s="4">
+        <v>122</v>
+      </c>
+      <c r="F19" s="4">
+        <v>88</v>
+      </c>
+      <c r="G19" s="4">
+        <v>97</v>
+      </c>
+      <c r="H19" s="4">
+        <v>110</v>
+      </c>
+      <c r="I19" s="4">
+        <v>527</v>
+      </c>
+      <c r="J19" s="4">
+        <v>634</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2249</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>107</v>
+      </c>
+      <c r="D20" s="4">
+        <v>100</v>
+      </c>
+      <c r="E20" s="4">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4">
+        <v>86</v>
+      </c>
+      <c r="G20" s="4">
+        <v>90</v>
+      </c>
+      <c r="H20" s="4">
+        <v>87</v>
+      </c>
+      <c r="I20" s="4">
+        <v>443</v>
+      </c>
+      <c r="J20" s="4">
+        <v>550</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>102</v>
+      </c>
+      <c r="D21" s="4">
+        <v>115</v>
+      </c>
+      <c r="E21" s="4">
+        <v>122</v>
+      </c>
+      <c r="F21" s="4">
+        <v>124</v>
+      </c>
+      <c r="G21" s="4">
+        <v>131</v>
+      </c>
+      <c r="H21" s="4">
+        <v>114</v>
+      </c>
+      <c r="I21" s="4">
+        <v>606</v>
+      </c>
+      <c r="J21" s="4">
+        <v>708</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>108</v>
+      </c>
+      <c r="D22" s="4">
+        <v>126</v>
+      </c>
+      <c r="E22" s="4">
+        <v>114</v>
+      </c>
+      <c r="F22" s="4">
+        <v>107</v>
+      </c>
+      <c r="G22" s="4">
+        <v>129</v>
+      </c>
+      <c r="H22" s="4">
+        <v>130</v>
+      </c>
+      <c r="I22" s="4">
+        <v>606</v>
+      </c>
+      <c r="J22" s="4">
+        <v>714</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4">
+        <v>84</v>
+      </c>
+      <c r="E23" s="4">
+        <v>90</v>
+      </c>
+      <c r="F23" s="4">
+        <v>90</v>
+      </c>
+      <c r="G23" s="4">
+        <v>92</v>
+      </c>
+      <c r="H23" s="4">
+        <v>90</v>
+      </c>
+      <c r="I23" s="4">
+        <v>446</v>
+      </c>
+      <c r="J23" s="4">
+        <v>528</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2026</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4">
+        <v>97</v>
+      </c>
+      <c r="G24" s="4">
+        <v>89</v>
+      </c>
+      <c r="H24" s="4">
+        <v>90</v>
+      </c>
+      <c r="I24" s="4">
+        <v>462</v>
+      </c>
+      <c r="J24" s="4">
+        <v>551</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4">
+        <v>90</v>
+      </c>
+      <c r="E25" s="4">
+        <v>106</v>
+      </c>
+      <c r="F25" s="4">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4">
+        <v>85</v>
+      </c>
+      <c r="H25" s="4">
+        <v>102</v>
+      </c>
+      <c r="I25" s="4">
+        <v>483</v>
+      </c>
+      <c r="J25" s="4">
+        <v>590</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1486,7 +1936,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -1497,13 +1947,13 @@
       <c r="D1">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>38</v>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
+      <c r="A2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B2">
         <v>415</v>
@@ -1517,13 +1967,13 @@
       <c r="E2">
         <v>1226</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="2">
         <v>1560</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>111</v>
@@ -1539,8 +1989,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>40</v>
+      <c r="A4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B4">
         <v>287</v>
@@ -1554,13 +2004,13 @@
       <c r="E4">
         <v>833</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="2">
         <v>1010</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>63</v>
@@ -1576,8 +2026,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>42</v>
+      <c r="A6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B6">
         <v>294</v>
@@ -1593,8 +2043,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>31</v>
+      <c r="A7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B7">
         <v>213</v>
@@ -1608,13 +2058,13 @@
       <c r="E7">
         <v>614</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="2">
         <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
+      <c r="A8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B8">
         <v>34</v>
@@ -1630,8 +2080,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>44</v>
+      <c r="A9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B9">
         <v>230</v>
@@ -1645,13 +2095,13 @@
       <c r="E9">
         <v>677</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="2">
         <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
+      <c r="A10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B10">
         <v>68</v>
@@ -1667,8 +2117,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>46</v>
+      <c r="A11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B11">
         <v>292</v>
@@ -1684,8 +2134,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
+      <c r="A12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B12">
         <v>247</v>
@@ -1704,8 +2154,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
+      <c r="A13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D13">
         <v>27</v>
@@ -1715,8 +2165,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>49</v>
+      <c r="A14" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B14">
         <v>316</v>
@@ -1736,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1748,7 +2198,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1">
         <v>9</v>
@@ -1763,12 +2213,12 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>619</v>
@@ -1788,7 +2238,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>541</v>
@@ -1808,7 +2258,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>373</v>
@@ -1828,7 +2278,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>446</v>
@@ -1848,7 +2298,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>415</v>
@@ -1868,7 +2318,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>448</v>

--- a/resources/student_number.xlsx
+++ b/resources/student_number.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="jpg" sheetId="4" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Middle School</t>
   </si>
   <si>
-    <t>Stroller</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>MS approx</t>
+  </si>
+  <si>
+    <t>Stoller</t>
   </si>
 </sst>
 </file>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,21 +737,21 @@
         <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -1008,13 +1008,13 @@
         <v>714</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>15</v>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -1809,13 +1809,13 @@
         <v>714</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>15</v>
@@ -1926,7 +1926,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1948,12 +1948,12 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>415</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>111</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>287</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>63</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>294</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>34</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>230</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>68</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>292</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>247</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>27</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>316</v>
@@ -2190,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2198,7 +2198,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>9</v>
@@ -2213,12 +2213,12 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>619</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>541</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>373</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>446</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>415</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>448</v>
